--- a/DelayDiscounting/DelayDiscountingAmt.xlsx
+++ b/DelayDiscounting/DelayDiscountingAmt.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jojo\Downloads\Helion Lab\Experiment Files\Delay Discounting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tul00635\Documents\GitHub\Self-Regulation-Psychopy-Files\DelayDiscounting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28CD0E6E-154A-44F9-B86C-CA03B453FF21}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100"/>
   </bookViews>
   <sheets>
     <sheet name="DelayDiscountingAmt" sheetId="1" r:id="rId1"/>
@@ -229,7 +228,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C5700"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -622,27 +621,27 @@
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -722,7 +721,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -734,7 +733,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -781,23 +780,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -833,23 +815,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1002,713 +967,713 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>48</v>
       </c>
       <c r="B2" s="1">
         <v>49</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>55</v>
       </c>
       <c r="B3" s="1">
-        <v>82</v>
-      </c>
-      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>20</v>
       </c>
       <c r="B4" s="1">
         <v>37</v>
       </c>
-      <c r="E4" t="s">
+      <c r="C4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>54</v>
       </c>
       <c r="B5" s="1">
         <v>55</v>
       </c>
-      <c r="E5" t="s">
+      <c r="C5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>55</v>
       </c>
       <c r="B6" s="1">
         <v>65</v>
       </c>
-      <c r="E6" t="s">
+      <c r="C6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>19</v>
       </c>
       <c r="B7" s="1">
         <v>25</v>
       </c>
-      <c r="E7" t="s">
+      <c r="C7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>31</v>
       </c>
       <c r="B8" s="1">
         <v>45</v>
       </c>
-      <c r="E8" t="s">
+      <c r="C8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>14</v>
       </c>
       <c r="B9" s="1">
         <v>25</v>
       </c>
-      <c r="E9" t="s">
+      <c r="C9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>47</v>
       </c>
       <c r="B10" s="1">
         <v>50</v>
       </c>
-      <c r="E10" t="s">
+      <c r="C10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>15</v>
       </c>
       <c r="B11" s="1">
         <v>35</v>
       </c>
-      <c r="E11" t="s">
+      <c r="C11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>25</v>
       </c>
       <c r="B12" s="1">
         <v>60</v>
       </c>
-      <c r="E12" t="s">
+      <c r="C12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>35</v>
       </c>
       <c r="B13" s="1">
         <v>64</v>
       </c>
-      <c r="E13" t="s">
+      <c r="C13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>40</v>
       </c>
       <c r="B14" s="1">
         <v>55</v>
       </c>
-      <c r="E14" t="s">
+      <c r="C14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>11</v>
       </c>
       <c r="B15" s="1">
         <v>30</v>
       </c>
-      <c r="E15" t="s">
+      <c r="C15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>52</v>
       </c>
       <c r="B16" s="1">
         <v>65</v>
       </c>
-      <c r="E16" t="s">
+      <c r="C16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>34</v>
       </c>
       <c r="B17" s="1">
         <v>35</v>
       </c>
-      <c r="E17" t="s">
+      <c r="C17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>27</v>
       </c>
       <c r="B18" s="1">
         <v>50</v>
       </c>
-      <c r="E18" t="s">
+      <c r="C18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>39</v>
       </c>
       <c r="B19" s="1">
         <v>61</v>
       </c>
-      <c r="E19" t="s">
+      <c r="C19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>49</v>
       </c>
       <c r="B20" s="1">
         <v>60</v>
       </c>
-      <c r="E20" t="s">
+      <c r="C20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>60</v>
       </c>
       <c r="B21" s="1">
         <v>65</v>
       </c>
-      <c r="E21" t="s">
+      <c r="C21" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>24</v>
       </c>
       <c r="B22" s="1">
         <v>35</v>
       </c>
-      <c r="E22" t="s">
+      <c r="C22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>33</v>
       </c>
       <c r="B23" s="1">
         <v>55</v>
       </c>
-      <c r="E23" t="s">
+      <c r="C23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>28</v>
       </c>
       <c r="B24" s="1">
         <v>30</v>
       </c>
-      <c r="E24" t="s">
+      <c r="C24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>34</v>
       </c>
       <c r="B25" s="1">
         <v>50</v>
       </c>
-      <c r="E25" t="s">
+      <c r="C25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1">
         <v>30</v>
       </c>
-      <c r="E26" t="s">
+      <c r="C26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>41</v>
       </c>
       <c r="B27" s="1">
         <v>65</v>
       </c>
-      <c r="E27" t="s">
+      <c r="C27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>54</v>
       </c>
       <c r="B28" s="1">
         <v>60</v>
       </c>
-      <c r="E28" t="s">
+      <c r="C28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>32</v>
       </c>
       <c r="B29" s="1">
         <v>44</v>
       </c>
-      <c r="E29" t="s">
+      <c r="C29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>22</v>
       </c>
       <c r="B30" s="1">
         <v>25</v>
       </c>
-      <c r="E30" t="s">
+      <c r="C30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>20</v>
       </c>
       <c r="B31" s="1">
         <v>55</v>
       </c>
-      <c r="E31" t="s">
+      <c r="C31" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>41</v>
       </c>
       <c r="B32" s="1">
         <v>45</v>
       </c>
-      <c r="E32" t="s">
+      <c r="C32" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>30</v>
       </c>
       <c r="B33" s="1">
         <v>52</v>
       </c>
-      <c r="E33" t="s">
+      <c r="C33" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>54</v>
       </c>
       <c r="B34" s="1">
         <v>60</v>
       </c>
-      <c r="E34" t="s">
+      <c r="C34" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>35</v>
       </c>
       <c r="B35" s="1">
         <v>64</v>
       </c>
-      <c r="E35" t="s">
+      <c r="C35" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>40</v>
       </c>
       <c r="B36" s="1">
         <v>55</v>
       </c>
-      <c r="E36" t="s">
+      <c r="C36" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>11</v>
       </c>
       <c r="B37" s="1">
         <v>30</v>
       </c>
-      <c r="E37" t="s">
+      <c r="C37" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>52</v>
       </c>
       <c r="B38" s="1">
         <v>65</v>
       </c>
-      <c r="E38" t="s">
+      <c r="C38" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>34</v>
       </c>
       <c r="B39" s="1">
         <v>35</v>
       </c>
-      <c r="E39" t="s">
+      <c r="C39" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>27</v>
       </c>
       <c r="B40" s="1">
         <v>50</v>
       </c>
-      <c r="E40" t="s">
+      <c r="C40" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>61</v>
       </c>
-      <c r="E41" t="s">
+      <c r="C41" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>49</v>
       </c>
       <c r="B42" s="1">
         <v>60</v>
       </c>
-      <c r="E42" t="s">
+      <c r="C42" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>60</v>
       </c>
       <c r="B43" s="1">
         <v>65</v>
       </c>
-      <c r="E43" t="s">
+      <c r="C43" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>24</v>
       </c>
       <c r="B44" s="1">
         <v>35</v>
       </c>
-      <c r="E44" t="s">
+      <c r="C44" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>33</v>
       </c>
       <c r="B45" s="1">
         <v>55</v>
       </c>
-      <c r="E45" t="s">
+      <c r="C45" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>28</v>
       </c>
       <c r="B46" s="1">
         <v>30</v>
       </c>
-      <c r="E46" t="s">
+      <c r="C46" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>34</v>
       </c>
       <c r="B47" s="1">
         <v>50</v>
       </c>
-      <c r="E47" t="s">
+      <c r="C47" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>25</v>
       </c>
       <c r="B48" s="1">
         <v>30</v>
       </c>
-      <c r="E48" t="s">
+      <c r="C48" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>41</v>
       </c>
       <c r="B49" s="1">
         <v>65</v>
       </c>
-      <c r="E49" t="s">
+      <c r="C49" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>54</v>
       </c>
       <c r="B50" s="1">
         <v>60</v>
       </c>
-      <c r="E50" t="s">
+      <c r="C50" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>32</v>
       </c>
       <c r="B51" s="1">
         <v>44</v>
       </c>
-      <c r="E51" t="s">
+      <c r="C51" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>22</v>
       </c>
       <c r="B52" s="1">
         <v>25</v>
       </c>
-      <c r="E52" t="s">
+      <c r="C52" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>20</v>
       </c>
       <c r="B53" s="1">
         <v>55</v>
       </c>
-      <c r="E53" t="s">
+      <c r="C53" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>41</v>
       </c>
       <c r="B54" s="1">
         <v>45</v>
       </c>
-      <c r="E54" t="s">
+      <c r="C54" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>35</v>
       </c>
       <c r="B55" s="1">
         <v>64</v>
       </c>
-      <c r="E55" t="s">
+      <c r="C55" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>40</v>
       </c>
       <c r="B56" s="1">
         <v>55</v>
       </c>
-      <c r="E56" t="s">
+      <c r="C56" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>11</v>
       </c>
       <c r="B57" s="1">
         <v>30</v>
       </c>
-      <c r="E57" t="s">
+      <c r="C57" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>52</v>
       </c>
       <c r="B58" s="1">
         <v>65</v>
       </c>
-      <c r="E58" t="s">
+      <c r="C58" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>34</v>
       </c>
       <c r="B59" s="1">
         <v>35</v>
       </c>
-      <c r="E59" t="s">
+      <c r="C59" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>27</v>
       </c>
       <c r="B60" s="1">
         <v>50</v>
       </c>
-      <c r="E60" t="s">
+      <c r="C60" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>39</v>
       </c>
       <c r="B61" s="1">
         <v>61</v>
       </c>
-      <c r="E61" t="s">
+      <c r="C61" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>49</v>
       </c>
       <c r="B62" s="1">
         <v>60</v>
       </c>
-      <c r="E62" t="s">
+      <c r="C62" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>60</v>
       </c>
       <c r="B63" s="1">
         <v>65</v>
       </c>
-      <c r="E63" t="s">
+      <c r="C63" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>24</v>
       </c>
       <c r="B64" s="1">
         <v>35</v>
       </c>
-      <c r="E64" t="s">
+      <c r="C64" t="s">
         <v>45</v>
       </c>
     </row>
